--- a/doc/04_DB定義書_C'z.xlsx
+++ b/doc/04_DB定義書_C'z.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09393BEA-C0F8-49F0-8EA8-56B8EEF47A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1B42F1-B9F1-4F87-8D8D-1A6F066910A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10500" yWindow="5520" windowWidth="18060" windowHeight="9150" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="Users" sheetId="2" r:id="rId2"/>
-    <sheet name="Mypage" sheetId="4" r:id="rId3"/>
-    <sheet name="First_long_master" sheetId="8" r:id="rId4"/>
-    <sheet name="First_long_trans" sheetId="11" r:id="rId5"/>
-    <sheet name="Short_master" sheetId="5" r:id="rId6"/>
-    <sheet name="Short_trans" sheetId="6" r:id="rId7"/>
-    <sheet name="Face_image" sheetId="7" r:id="rId8"/>
-    <sheet name="Body_image" sheetId="9" r:id="rId9"/>
-    <sheet name="Health_image" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId2"/>
+    <sheet name="Users" sheetId="2" r:id="rId3"/>
+    <sheet name="Mypage" sheetId="4" r:id="rId4"/>
+    <sheet name="First_long_master" sheetId="8" r:id="rId5"/>
+    <sheet name="First_long_trans" sheetId="11" r:id="rId6"/>
+    <sheet name="Short_master" sheetId="5" r:id="rId7"/>
+    <sheet name="Short_trans" sheetId="6" r:id="rId8"/>
+    <sheet name="Face_image" sheetId="7" r:id="rId9"/>
+    <sheet name="Body_image" sheetId="9" r:id="rId10"/>
+    <sheet name="Health_image" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="195">
   <si>
     <t>兼平美波</t>
   </si>
@@ -202,9 +203,6 @@
     <t>達成可否</t>
   </si>
   <si>
-    <t>complete</t>
-  </si>
-  <si>
     <t>complete varchar (20)</t>
   </si>
   <si>
@@ -248,9 +246,6 @@
   </si>
   <si>
     <t>体重</t>
-  </si>
-  <si>
-    <t>weight</t>
   </si>
   <si>
     <t>weight double</t>
@@ -739,6 +734,103 @@
     <rPh sb="0" eb="2">
       <t>タントウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 = FALSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaa02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tanaka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaa01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yamada</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaa03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body02.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body01.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※顔の画像はアップロードされたときにIDが付くような処理を書く</t>
+    <rPh sb="1" eb="2">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※体の画像はこっちでID付ける</t>
+    <rPh sb="1" eb="2">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 = FALSE (0=未選択 1=選択中 2=完了)</t>
+    <rPh sb="13" eb="16">
+      <t>ミセンタク</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>センタクチュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>long_complete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short_complete</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -794,7 +886,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,6 +896,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +1000,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -917,6 +1018,117 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2E0235-2EFD-4F78-A302-477638AB706F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2876550" y="1752600"/>
+          <a:ext cx="5505450" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44609C19-7896-428A-9F9C-88A6BAF158A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2019300" y="1495425"/>
+          <a:ext cx="6324600" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1245,8 +1457,8 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1318,7 +1530,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1336,7 +1548,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1354,7 +1566,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1365,14 +1577,14 @@
         <v>19</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1383,14 +1595,14 @@
         <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1401,14 +1613,14 @@
         <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1419,14 +1631,14 @@
         <v>24</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1434,17 +1646,17 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1452,17 +1664,17 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1470,17 +1682,17 @@
         <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
@@ -1501,14 +1713,14 @@
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C20" s="9"/>
       <c r="D20" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E20" s="9"/>
     </row>
@@ -1525,11 +1737,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37BF7BD-F277-4CEB-9292-ACF7986EFB56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2303EF0-5ECC-423C-8563-1E8777C07BE6}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1547,7 +1759,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1559,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1583,7 +1795,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -1597,7 +1809,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1662,7 +1874,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1673,7 +1885,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -1691,7 +1903,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1699,10 +1911,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
@@ -1711,7 +1923,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -1720,7 +1932,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1728,44 +1940,38 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>142</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E12" s="8">
+        <v>200</v>
+      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="8">
-        <v>200</v>
-      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1787,6 +1993,484 @@
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37BF7BD-F277-4CEB-9292-ACF7986EFB56}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44722</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="L10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="8">
+        <v>200</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>6</v>
       </c>
@@ -2003,11 +2687,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F866DF79-84F1-4BB7-8A93-2AE7DDA356EB}">
+  <dimension ref="C3:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C16" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2116,7 +3000,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2127,10 +3011,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
@@ -2143,7 +3027,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2151,10 +3035,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
@@ -2163,7 +3047,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -2180,10 +3064,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>40</v>
@@ -2199,7 +3083,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2207,10 +3091,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -2226,7 +3110,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2234,13 +3118,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -2251,7 +3135,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2259,13 +3143,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -2276,7 +3160,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2284,10 +3168,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>40</v>
@@ -2297,7 +3181,9 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
@@ -2306,10 +3192,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>40</v>
@@ -2319,7 +3205,9 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
@@ -2493,7 +3381,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2503,12 +3391,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8BCCDF-9401-4555-AF23-A4DE4C1D5937}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D13" sqref="D13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2628,7 +3516,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2639,7 +3527,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -2657,7 +3545,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="3"/>
       <c r="L10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2665,10 +3553,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
@@ -2677,7 +3565,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -2694,17 +3582,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
@@ -2713,7 +3601,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="3"/>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2721,13 +3609,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="8"/>
@@ -2736,7 +3624,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="3"/>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2744,13 +3632,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="8"/>
@@ -2759,7 +3647,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="3"/>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2974,7 +3862,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2983,12 +3871,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40B071B-1DEB-407D-88F4-11DAD9F3455B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3006,7 +3894,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3028,7 +3916,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -3044,7 +3932,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -3099,7 +3987,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3110,7 +3998,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -3128,7 +4016,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3148,7 +4036,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -3157,7 +4045,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3165,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>40</v>
@@ -3184,7 +4072,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3192,10 +4080,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -3211,7 +4099,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -3440,7 +4328,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3449,12 +4337,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37421235-ABCF-4EE8-B151-B25676578173}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3494,7 +4382,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -3543,7 +4431,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>8</v>
@@ -3680,7 +4568,7 @@
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -3703,7 +4591,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -3722,7 +4610,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -3742,10 +4630,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
@@ -3754,7 +4642,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -3764,7 +4652,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -3794,17 +4682,19 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -3836,7 +4726,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
@@ -3846,7 +4736,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -3868,27 +4758,27 @@
       <c r="B14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>53</v>
+      <c r="C14" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="8">
-        <v>20</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="8" t="b">
+      <c r="I14" s="17">
         <v>0</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="17" t="s">
+        <v>192</v>
+      </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -3908,10 +4798,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>37</v>
@@ -3922,13 +4812,15 @@
       <c r="H15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
       <c r="J15" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -3948,10 +4840,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>37</v>
@@ -3962,13 +4854,15 @@
       <c r="H16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
       <c r="J16" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -3988,13 +4882,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -4004,7 +4898,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -4035,7 +4929,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -4065,7 +4959,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="9"/>
       <c r="K19" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -4114,7 +5008,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4239,7 +5133,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4248,12 +5142,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384B89EC-C0F0-4EFD-A711-A8F0F02D8514}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:J23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4271,7 +5165,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4293,7 +5187,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -4309,7 +5203,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -4397,7 +5291,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -4408,7 +5302,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -4426,7 +5320,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -4444,7 +5338,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -4453,7 +5347,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -4461,7 +5355,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>49</v>
@@ -4478,7 +5372,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -4486,10 +5380,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -4505,7 +5399,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="L13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -4734,7 +5628,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4743,12 +5637,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BEE748-7CA8-46B6-A40A-1040DBA61934}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4908,7 +5802,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -4935,10 +5829,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
@@ -4947,7 +5841,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -4965,21 +5859,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G12" s="17"/>
       <c r="H12" s="8" t="s">
         <v>38</v>
       </c>
@@ -4987,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" t="s">
@@ -5009,11 +5901,9 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="8" t="s">
         <v>38</v>
       </c>
@@ -5043,7 +5933,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
@@ -5081,7 +5971,7 @@
       </c>
       <c r="K15" s="9"/>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -5091,27 +5981,27 @@
       <c r="B16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>53</v>
+      <c r="C16" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="8">
-        <v>20</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="17">
         <v>0</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -5301,7 +6191,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5310,12 +6200,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D9FB54-5EDF-47E7-92DB-643CAA79FD1D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J14"/>
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5333,7 +6223,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -5369,7 +6259,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -5383,7 +6273,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -5436,7 +6326,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -5447,7 +6337,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -5465,7 +6355,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -5473,10 +6363,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
@@ -5485,7 +6375,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -5502,10 +6392,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>40</v>
@@ -5515,13 +6405,15 @@
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="I12" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J12" s="8"/>
       <c r="L12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -5764,478 +6656,8 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2303EF0-5ECC-423C-8563-1E8777C07BE6}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44722</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="L10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="8">
-        <v>20</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="L11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="8">
-        <v>200</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="L12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/04_DB定義書_C'z.xlsx
+++ b/doc/04_DB定義書_C'z.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1B42F1-B9F1-4F87-8D8D-1A6F066910A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B7A16D-B6A6-40DC-BFB2-9EAC62651C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10500" yWindow="5520" windowWidth="18060" windowHeight="9150" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="Short_master" sheetId="5" r:id="rId7"/>
     <sheet name="Short_trans" sheetId="6" r:id="rId8"/>
     <sheet name="Face_image" sheetId="7" r:id="rId9"/>
-    <sheet name="Body_image" sheetId="9" r:id="rId10"/>
-    <sheet name="Health_image" sheetId="10" r:id="rId11"/>
+    <sheet name="Health_image" sheetId="10" r:id="rId10"/>
+    <sheet name="Body_image" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="196">
   <si>
     <t>兼平美波</t>
   </si>
@@ -831,6 +831,10 @@
   </si>
   <si>
     <t>short_complete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップロードした画像のパスを格納する</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -886,7 +890,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,6 +906,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,7 +958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,6 +1011,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1737,6 +1759,484 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37BF7BD-F277-4CEB-9292-ACF7986EFB56}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44722</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="L10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="8">
+        <v>200</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <v>7</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2303EF0-5ECC-423C-8563-1E8777C07BE6}">
   <dimension ref="A1:L29"/>
   <sheetViews>
@@ -2208,484 +2708,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37BF7BD-F277-4CEB-9292-ACF7986EFB56}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44722</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="L10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="8">
-        <v>20</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="L11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="L12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="8">
-        <v>200</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
-        <v>7</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F866DF79-84F1-4BB7-8A93-2AE7DDA356EB}">
   <dimension ref="C3:J18"/>
@@ -2890,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3164,28 +3186,30 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="A16" s="19">
         <v>7</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="17">
         <v>20</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
@@ -3875,7 +3899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40B071B-1DEB-407D-88F4-11DAD9F3455B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -4341,7 +4365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37421235-ABCF-4EE8-B151-B25676578173}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -5146,7 +5170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384B89EC-C0F0-4EFD-A711-A8F0F02D8514}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -6204,8 +6228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D9FB54-5EDF-47E7-92DB-643CAA79FD1D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6359,30 +6383,30 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+      <c r="A11" s="17">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="17">
         <v>20</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
       <c r="L11" t="s">
         <v>41</v>
       </c>
@@ -6392,99 +6416,115 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="8">
-        <v>200</v>
-      </c>
-      <c r="F12" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>97</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I12" s="11"/>
       <c r="J12" s="8"/>
       <c r="L12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+      <c r="A13" s="17">
         <v>4</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="B13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>5</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8">
+        <v>200</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">

--- a/doc/04_DB定義書_C'z.xlsx
+++ b/doc/04_DB定義書_C'z.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B7A16D-B6A6-40DC-BFB2-9EAC62651C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D20731-80BB-4EFD-B16A-6CF22AE80856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="202">
   <si>
     <t>兼平美波</t>
   </si>
@@ -835,6 +835,51 @@
   </si>
   <si>
     <t>アップロードした画像のパスを格納する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bmi_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体画像BMI ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体画像色 ID</t>
+    <rPh sb="0" eb="3">
+      <t>カラダガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>９段階／未達長期目標の数と一致させる</t>
+    <rPh sb="1" eb="3">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="10">
+      <t>ミタツチョウキモクヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４段階／</t>
+    <rPh sb="1" eb="3">
+      <t>ダンカイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2240,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2303EF0-5ECC-423C-8563-1E8777C07BE6}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2407,59 +2452,55 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+      <c r="A11" s="17">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="8">
-        <v>20</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="B11" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>201</v>
+      </c>
       <c r="L11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+      <c r="A12" s="17">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="B12" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="8"/>
       <c r="L12" t="s">
         <v>127</v>
       </c>
@@ -2468,14 +2509,26 @@
       <c r="A13" s="8">
         <v>4</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="8">
+        <v>200</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -3419,7 +3472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8BCCDF-9401-4555-AF23-A4DE4C1D5937}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D13" sqref="D13:H14"/>
     </sheetView>
   </sheetViews>
@@ -6228,7 +6281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D9FB54-5EDF-47E7-92DB-643CAA79FD1D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_DB定義書_C'z.xlsx
+++ b/doc/04_DB定義書_C'z.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D20731-80BB-4EFD-B16A-6CF22AE80856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1883FEB7-6D16-479A-A04D-67879BC0BCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="201">
   <si>
     <t>兼平美波</t>
   </si>
@@ -831,10 +831,6 @@
   </si>
   <si>
     <t>short_complete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アップロードした画像のパスを格納する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1003,7 +999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,12 +1055,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2285,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2303EF0-5ECC-423C-8563-1E8777C07BE6}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="A11:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2456,10 +2446,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>168</v>
@@ -2472,7 +2462,7 @@
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L11" t="s">
         <v>124</v>
@@ -2483,10 +2473,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>168</v>
@@ -2499,7 +2489,7 @@
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L12" t="s">
         <v>127</v>
@@ -2965,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3239,54 +3229,52 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>7</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="17">
-        <v>20</v>
-      </c>
+      <c r="B16" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19" t="s">
-        <v>195</v>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="A17" s="17">
         <v>8</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="8">
-        <v>20</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
+      <c r="B17" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -6556,16 +6544,16 @@
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>

--- a/doc/04_DB定義書_C'z.xlsx
+++ b/doc/04_DB定義書_C'z.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1883FEB7-6D16-479A-A04D-67879BC0BCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8B3A92-3205-40E0-91B5-925BBF42220E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0 = FALSE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>aaaa02</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -875,6 +871,19 @@
     <t>４段階／</t>
     <rPh sb="1" eb="3">
       <t>ダンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0=未報告　1=成功　2=失敗（2が3つでアウト）</t>
+    <rPh sb="2" eb="5">
+      <t>ミホウコク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2446,10 +2455,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>168</v>
@@ -2462,7 +2471,7 @@
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L11" t="s">
         <v>124</v>
@@ -2473,10 +2482,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>168</v>
@@ -2489,7 +2498,7 @@
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L12" t="s">
         <v>127</v>
@@ -2783,7 +2792,7 @@
         <v>126</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.15">
@@ -2797,7 +2806,7 @@
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.15">
@@ -2805,10 +2814,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.15">
@@ -2816,10 +2825,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J7" t="s">
         <v>144</v>
@@ -2830,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J8" t="s">
         <v>168</v>
@@ -2924,13 +2933,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.15">
@@ -2938,10 +2947,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2955,7 +2964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -3233,10 +3242,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>168</v>
@@ -3249,7 +3258,7 @@
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -3257,10 +3266,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>168</v>
@@ -3273,7 +3282,7 @@
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -3941,7 +3950,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4406,8 +4415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37421235-ABCF-4EE8-B151-B25676578173}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4824,7 +4833,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>168</v>
@@ -4839,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9" t="s">
@@ -5706,8 +5715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BEE748-7CA8-46B6-A40A-1040DBA61934}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6047,7 +6056,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>168</v>
@@ -6062,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" t="s">

--- a/doc/04_DB定義書_C'z.xlsx
+++ b/doc/04_DB定義書_C'z.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8B3A92-3205-40E0-91B5-925BBF42220E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E0314F-A438-4957-AFCD-3DF1F9CBAF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="240" windowWidth="18060" windowHeight="9150" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>type varchar (20)</t>
-  </si>
-  <si>
-    <t>項目番号</t>
   </si>
   <si>
     <t>no</t>
@@ -884,6 +881,13 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標レベル</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1596,7 +1600,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1614,7 +1618,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1632,7 +1636,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1643,14 +1647,14 @@
         <v>19</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1661,14 +1665,14 @@
         <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1679,14 +1683,14 @@
         <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1697,14 +1701,14 @@
         <v>24</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1712,17 +1716,17 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1730,17 +1734,17 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1748,17 +1752,17 @@
         <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
@@ -1779,14 +1783,14 @@
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C20" s="9"/>
       <c r="D20" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E20" s="9"/>
     </row>
@@ -1825,7 +1829,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1837,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1861,7 +1865,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -1875,7 +1879,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1940,7 +1944,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1951,7 +1955,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -1969,7 +1973,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1977,10 +1981,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
@@ -1989,7 +1993,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -2006,17 +2010,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
@@ -2025,7 +2029,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2033,10 +2037,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -2303,7 +2307,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2339,7 +2343,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -2353,7 +2357,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -2418,7 +2422,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2429,7 +2433,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -2447,7 +2451,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2455,26 +2459,26 @@
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2482,26 +2486,26 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2509,10 +2513,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -2523,10 +2527,10 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J13" s="8"/>
     </row>
@@ -2775,24 +2779,24 @@
         <v>36</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C4" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.15">
@@ -2806,7 +2810,7 @@
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.15">
@@ -2814,10 +2818,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.15">
@@ -2825,13 +2829,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.15">
@@ -2839,10 +2843,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.15">
@@ -2855,56 +2859,56 @@
         <v>36</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>136</v>
-      </c>
       <c r="F15" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I15" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C16" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>40</v>
@@ -2916,10 +2920,10 @@
         <v>40</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>40</v>
@@ -2933,13 +2937,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.15">
@@ -2947,10 +2951,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3074,7 +3078,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3085,10 +3089,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
@@ -3101,7 +3105,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -3109,10 +3113,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
@@ -3121,7 +3125,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -3138,10 +3142,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>40</v>
@@ -3157,7 +3161,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3165,10 +3169,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -3184,7 +3188,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -3192,13 +3196,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -3209,7 +3213,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -3217,13 +3221,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -3234,7 +3238,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -3242,23 +3246,23 @@
         <v>7</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -3266,23 +3270,23 @@
         <v>8</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -3455,7 +3459,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3590,7 +3594,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3601,7 +3605,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -3619,7 +3623,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="3"/>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -3627,10 +3631,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
@@ -3639,7 +3643,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -3656,17 +3660,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
@@ -3675,7 +3679,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="3"/>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3683,13 +3687,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="8"/>
@@ -3698,7 +3702,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="3"/>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -3706,13 +3710,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="8"/>
@@ -3721,7 +3725,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="3"/>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -3936,7 +3940,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3968,7 +3972,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3990,7 +3994,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -4006,7 +4010,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -4061,7 +4065,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4072,7 +4076,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -4090,7 +4094,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4110,7 +4114,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -4119,7 +4123,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4127,10 +4131,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>40</v>
@@ -4146,7 +4150,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4154,10 +4158,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -4173,7 +4177,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -4402,7 +4406,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4456,7 +4460,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -4505,7 +4509,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>8</v>
@@ -4642,7 +4646,7 @@
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -4665,7 +4669,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -4684,7 +4688,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -4704,10 +4708,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
@@ -4716,7 +4720,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -4726,7 +4730,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -4756,7 +4760,7 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
@@ -4768,7 +4772,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -4800,7 +4804,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
@@ -4810,7 +4814,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -4830,13 +4834,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -4848,11 +4852,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -4872,10 +4876,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>37</v>
@@ -4890,11 +4894,11 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -4914,10 +4918,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>37</v>
@@ -4932,11 +4936,11 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -4956,13 +4960,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -4972,7 +4976,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -5003,7 +5007,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -5033,7 +5037,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="9"/>
       <c r="K19" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -5082,7 +5086,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5207,7 +5211,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5221,7 +5225,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5239,7 +5243,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -5261,7 +5265,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -5277,7 +5281,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -5365,7 +5369,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -5376,7 +5380,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -5394,7 +5398,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -5412,7 +5416,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -5421,7 +5425,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="L11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -5429,10 +5433,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>37</v>
@@ -5446,7 +5450,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -5454,10 +5458,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
@@ -5473,7 +5477,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -5702,7 +5706,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5716,7 +5720,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5876,7 +5880,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -5903,10 +5907,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
@@ -5915,7 +5919,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -5933,17 +5937,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="8" t="s">
@@ -5953,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" t="s">
@@ -5975,7 +5979,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="8" t="s">
@@ -6007,7 +6011,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
@@ -6017,7 +6021,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
       <c r="L14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -6025,10 +6029,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>37</v>
@@ -6041,11 +6045,11 @@
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -6053,13 +6057,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -6071,11 +6075,11 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -6265,7 +6269,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6297,7 +6301,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -6333,7 +6337,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -6347,7 +6351,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -6400,7 +6404,7 @@
         <v>13</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -6411,7 +6415,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -6429,7 +6433,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="L10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -6437,10 +6441,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>40</v>
@@ -6449,7 +6453,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17" t="s">
@@ -6466,10 +6470,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>40</v>
@@ -6478,7 +6482,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
@@ -6487,7 +6491,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="8"/>
       <c r="L12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -6495,17 +6499,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="s">
@@ -6519,10 +6523,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>40</v>
@@ -6533,10 +6537,10 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J14" s="8"/>
     </row>
@@ -6746,7 +6750,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/doc/04_DB定義書_C'z.xlsx
+++ b/doc/04_DB定義書_C'z.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E0314F-A438-4957-AFCD-3DF1F9CBAF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB460AE3-CFC4-4066-AB4C-565104909DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="240" windowWidth="18060" windowHeight="9150" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="202">
   <si>
     <t>兼平美波</t>
   </si>
@@ -888,6 +888,29 @@
     <t>目標レベル</t>
     <rPh sb="0" eb="2">
       <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４段階／初めのBMIの値を３と定義。
+BMIが１下がればidも１減る。</t>
+    <rPh sb="1" eb="3">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヘ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1012,7 +1035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1072,6 +1095,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2968,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3241,7 +3267,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17">
         <v>7</v>
       </c>
@@ -3260,9 +3286,11 @@
       <c r="H16" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17" t="s">
-        <v>198</v>
+      <c r="I16" s="17">
+        <v>3</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -5719,7 +5747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BEE748-7CA8-46B6-A40A-1040DBA61934}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
